--- a/OmegasItemMerchants/LangMod/EN/SourceAutomaton.xlsx
+++ b/OmegasItemMerchants/LangMod/EN/SourceAutomaton.xlsx
@@ -5,12 +5,16 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Chara" sheetId="1" state="visible" r:id="rId3"/>
     <sheet name="CharaText" sheetId="2" state="visible" r:id="rId4"/>
+    <sheet name="Thing" sheetId="3" state="visible" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Thing!$A$3:$AZ$3</definedName>
+  </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -21,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="145">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -309,17 +313,165 @@
   </si>
   <si>
     <t xml:space="preserve">"…"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unknown_JP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unit_JP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">naming</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unknown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_tileType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">altTiles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">anime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">skins</t>
+  </si>
+  <si>
+    <t xml:space="preserve">colorType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">recipeKey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">disassemble</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tierGroup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">weight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">electricity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">range</t>
+  </si>
+  <si>
+    <t xml:space="preserve">attackType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">offense</t>
+  </si>
+  <si>
+    <t xml:space="preserve">substats</t>
+  </si>
+  <si>
+    <t xml:space="preserve">defense</t>
+  </si>
+  <si>
+    <t xml:space="preserve">idToggleExtra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">idActorEx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">idSound</t>
+  </si>
+  <si>
+    <t xml:space="preserve">workTag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">roomName_JP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">roomName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">個</t>
+  </si>
+  <si>
+    <t xml:space="preserve">other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">log</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">martial_kenkonken</t>
+  </si>
+  <si>
+    <t xml:space="preserve">乾坤圏</t>
+  </si>
+  <si>
+    <t xml:space="preserve">振り</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kenkonken</t>
+  </si>
+  <si>
+    <t xml:space="preserve">martial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2170 weapon martial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@obj_S EQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ingot,ingot,+magic_stone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iron</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mod_flurry/40,mod_frustration/40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Claw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,0,5,-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3,2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">遠い世界ヴァナ・ディールからもたらされた輪型の格闘武器。 傀儡子（パペットマスター）がオートマトンと呼ばれる人形を操るために使用していたとされる。 また、この武器はアトルガン皇国の皇帝であり、伝説の英雄バルラーンが収集したものの一つとしても知られている。</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ring-shaped fists that came from the faraway world of Vana'diel. It is said that these were specifically used by Puppetmasters, who controlled dolls known as Automatons. It is also well-known to have been one of the weapons collected by the most eminent hero and Emperor of Aht Urhgan, Balrahn.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="@"/>
     <numFmt numFmtId="165" formatCode="General"/>
+    <numFmt numFmtId="166" formatCode="#,##0"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -378,6 +530,12 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -424,7 +582,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="17">
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -442,10 +600,6 @@
       <protection locked="false" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -469,6 +623,34 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -479,7 +661,7 @@
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
     <cellStyle name="Excel Built-in Normal" xfId="20"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
     <dxf>
       <font>
         <name val="游ゴシック"/>
@@ -505,6 +687,13 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF000000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -570,6 +759,10 @@
     </indexedColors>
   </colors>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -685,8 +878,8 @@
   </sheetPr>
   <dimension ref="A1:AW5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F17" activeCellId="0" sqref="F17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F13" activeCellId="0" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1109,7 +1302,7 @@
       <c r="AV3" s="2"/>
       <c r="AW3" s="2"/>
     </row>
-    <row r="4" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
         <v>58</v>
       </c>
@@ -1196,7 +1389,7 @@
       <c r="AV4" s="2"/>
       <c r="AW4" s="2"/>
     </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
         <v>76</v>
       </c>
@@ -1323,198 +1516,198 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="5" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="L2" s="6" t="s">
+      <c r="A2" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="L2" s="5" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6" t="s">
+      <c r="B4" s="5"/>
+      <c r="C4" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="J4" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="K4" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="L4" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
-      <c r="S4" s="6"/>
-      <c r="T4" s="6"/>
-      <c r="U4" s="6"/>
-      <c r="V4" s="6"/>
-      <c r="W4" s="6"/>
-      <c r="X4" s="6"/>
-      <c r="Y4" s="6"/>
-      <c r="Z4" s="6"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="5"/>
+      <c r="W4" s="5"/>
+      <c r="X4" s="5"/>
+      <c r="Y4" s="5"/>
+      <c r="Z4" s="5"/>
     </row>
     <row r="5" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="8"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
+      <c r="A5" s="7"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
     </row>
     <row r="6" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="8"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
+      <c r="A6" s="7"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
     </row>
     <row r="7" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="8"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
+      <c r="A7" s="7"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
     </row>
     <row r="8" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="8"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
+      <c r="A8" s="7"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A5:A8">
@@ -1528,4 +1721,929 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:AZ1048576"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="7.453125" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="10" width="25.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="10" width="10.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="10" width="17.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="10" width="12.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="10" width="28.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="10" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="10" width="6.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="10" width="8.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="10" width="10.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="10" width="17.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="10" width="9.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="10" width="8.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="10" width="19.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="10" width="14.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="10" width="20"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="10" width="6.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="17" style="10" width="4.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="10" width="13.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="10" width="6.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="10" width="8.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="10" width="14.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="10" width="25.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="10" width="30.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="10" width="8.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="10" width="6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="11" width="8.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="12" width="4.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="10" width="7.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="10" width="9.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="10" width="5.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="11" width="11.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="10" width="11.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="10" width="17.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="10" width="23.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="10" width="8.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="10" width="9.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="10" width="13.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="10" width="8.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="40" style="10" width="11.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="44" style="10" width="13.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="45" min="45" style="10" width="11.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="46" min="46" style="10" width="21.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="47" min="47" style="10" width="23.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="48" min="48" style="10" width="14.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="49" min="49" style="10" width="23.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="50" min="50" style="10" width="22.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="51" min="51" style="10" width="53.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="52" min="52" style="10" width="40.36"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="M1" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="P1" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q1" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="R1" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="S1" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="T1" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="U1" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="V1" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="W1" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="X1" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y1" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z1" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA1" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB1" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC1" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD1" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE1" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="AF1" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="AG1" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH1" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="AI1" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="AJ1" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="AK1" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="AL1" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="AM1" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="AN1" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="AO1" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="AP1" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="AQ1" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="AR1" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="AS1" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="AT1" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="AU1" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="AV1" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="AW1" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="AX1" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="AY1" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="AZ1" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="M2" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="N2" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="P2" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q2" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="R2" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="S2" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="T2" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="U2" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="V2" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="W2" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="X2" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y2" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z2" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA2" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB2" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC2" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="AD2" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE2" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="AF2" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG2" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH2" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="AI2" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="AJ2" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="AK2" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="AL2" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="AM2" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="AN2" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="AO2" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="AP2" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="AQ2" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="AR2" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="AS2" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="AT2" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU2" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="AV2" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW2" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="AX2" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY2" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="AZ2" s="13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D3" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="N3" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" s="10" t="n">
+        <v>100</v>
+      </c>
+      <c r="W3" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="Y3" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="AA3" s="16" t="n">
+        <v>100</v>
+      </c>
+      <c r="AB3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC3" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="AE3" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF3" s="16" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="M4" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="W4" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y4" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="Z4" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA4" s="11" t="n">
+        <v>500</v>
+      </c>
+      <c r="AB4" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC4" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF4" s="11" t="n">
+        <v>400</v>
+      </c>
+      <c r="AI4" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="AK4" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="AL4" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="AM4" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="AN4" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="AY4" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="AZ4" s="10" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="1048147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048290" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048292" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048297" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048298" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048299" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048300" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048302" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048303" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048304" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048305" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048306" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048307" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048308" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048309" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048310" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048311" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048312" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048313" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048314" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048315" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048316" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048317" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048318" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048319" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048320" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048321" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048322" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048323" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048324" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048325" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048326" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048327" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048328" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048329" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048330" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048331" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048332" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048333" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048334" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048335" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048336" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048337" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048338" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048339" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048340" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048341" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048342" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048343" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048344" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048345" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048346" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048347" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048348" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048349" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048350" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048351" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048352" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048353" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048354" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048355" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048356" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048357" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048358" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048359" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048360" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048361" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048362" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048363" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048364" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048365" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048366" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048367" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048368" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048369" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048370" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048371" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048372" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048373" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048374" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048375" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048376" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048377" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048378" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048379" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048380" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048381" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048382" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048383" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048384" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048385" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048386" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048387" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048388" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048389" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048390" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048391" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048392" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048393" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048394" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048395" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048396" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048397" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048398" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048399" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048400" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048401" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048402" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048403" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048404" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048405" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048406" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048407" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048408" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048409" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048410" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048411" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048412" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048413" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048414" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048415" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048416" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048417" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048418" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048419" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048420" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048421" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048422" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048423" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048424" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048425" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048426" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048427" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048428" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048429" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048430" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048431" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048432" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048433" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048434" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048435" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048436" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048437" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048438" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048439" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048440" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048441" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048442" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048443" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048444" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048445" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048446" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048447" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048448" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048449" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048450" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048451" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048452" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048453" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048454" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048455" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048456" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048457" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048458" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048459" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048460" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048461" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048462" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048463" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048464" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048465" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048466" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048467" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048468" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048469" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048470" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048471" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048472" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048473" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048474" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048475" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048476" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048477" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048478" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048479" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048480" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048481" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048482" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048483" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048484" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048485" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048486" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048487" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048488" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048489" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048490" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048491" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048492" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048493" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048494" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048495" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048496" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048497" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048498" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048499" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048500" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048501" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048502" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048503" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048504" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048505" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048506" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048507" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048508" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048509" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048510" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048511" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048512" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048513" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048514" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048515" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048516" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048517" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048518" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048519" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048520" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048521" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048522" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048523" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048524" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048525" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048526" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048527" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048528" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048529" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048530" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048531" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048532" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048533" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048534" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048535" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048536" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048537" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048538" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048539" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048540" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048541" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048542" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048543" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048544" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048545" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048546" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048547" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048548" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048549" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048550" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <autoFilter ref="A3:AZ3"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>